--- a/app/data/parameters.xlsx
+++ b/app/data/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\OneDrive\Desktop\Ecodata\Repos\mars_rhino\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2A0823-AE9F-4CFF-8AA5-83D8061AE085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1B1D7C-C847-4D7E-83EA-DE8C4EB18FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation_control" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,26 @@
     <sheet name="farm_layout full" sheetId="6" r:id="rId4"/>
     <sheet name="crop sheet lookup" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t>parameter</t>
   </si>
@@ -176,6 +185,9 @@
   </si>
   <si>
     <t>White Teak_Calendar</t>
+  </si>
+  <si>
+    <t>monthly_income_threshold_rp</t>
   </si>
 </sst>
 </file>
@@ -521,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,6 +591,17 @@
       <c r="B6">
         <v>0</v>
       </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -590,7 +613,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>3333</v>
+        <v>3.33</v>
       </c>
       <c r="D9">
         <v>299</v>
@@ -941,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>3333</v>
+        <v>3.33</v>
       </c>
       <c r="D11">
         <v>299</v>
@@ -980,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F6572E-6748-484E-9808-A0B0D9890D0A}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/app/data/parameters.xlsx
+++ b/app/data/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\OneDrive\Desktop\Ecodata\Repos\mars_rhino\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1B1D7C-C847-4D7E-83EA-DE8C4EB18FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DC61A6-FBCE-4A97-B677-1EE4BAEEA81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39795" yWindow="1395" windowWidth="38700" windowHeight="15285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation_control" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>parameter</t>
   </si>
@@ -535,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1001,10 +992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F6572E-6748-484E-9808-A0B0D9890D0A}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,24 +1058,47 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>143</v>
       </c>
     </row>

--- a/app/data/parameters.xlsx
+++ b/app/data/parameters.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\OneDrive\Desktop\Ecodata\Repos\mars_rhino\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DC61A6-FBCE-4A97-B677-1EE4BAEEA81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88E065A-9E86-4991-ACBE-8B19B8831266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39795" yWindow="1395" windowWidth="38700" windowHeight="15285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="64305" yWindow="3075" windowWidth="23265" windowHeight="12795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation_control" sheetId="1" r:id="rId1"/>
     <sheet name="crop_global_parameters" sheetId="4" r:id="rId2"/>
     <sheet name="farm_layout" sheetId="2" r:id="rId3"/>
     <sheet name="farm_layout full" sheetId="6" r:id="rId4"/>
-    <sheet name="crop sheet lookup" sheetId="5" r:id="rId5"/>
+    <sheet name="crop_sheet_lookup" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -994,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F6572E-6748-484E-9808-A0B0D9890D0A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -1389,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C074F89E-2346-4E9E-B992-B11A467BD05A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
